--- a/docs/EAD/LeoIoT_Goalfinder_BOM.xlsx
+++ b/docs/EAD/LeoIoT_Goalfinder_BOM.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="153222"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="450" windowWidth="28800" windowHeight="14070"/>
   </bookViews>
   <sheets>
     <sheet name="Goalfinder_BOM" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
   <si>
     <t>Reference</t>
   </si>
@@ -223,9 +223,6 @@
     <t>https://www.amazon.de/AZDelivery-Vibration-Sch%C3%BCttel-Ersch%C3%BCtterung-Arduino/dp/B07V9CZ89G</t>
   </si>
   <si>
-    <t>Solder USB cabel instead</t>
-  </si>
-  <si>
     <t>https://www.amazon.de/dp/B09PL6XFHC</t>
   </si>
   <si>
@@ -241,7 +238,26 @@
     <t>Comment / Supplier</t>
   </si>
   <si>
-    <t>Optional for THT parts, replaces C4, C5, C6, C7, C8</t>
+    <t>https://www.amazon.de/GOMING-COB-Selbstklebend-Wasserdicht-Lichtband/dp/B09VGR6PWH/ref=sr_1_4?th=1</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/KARELLS-Steckerkabel-Verl%C3%A4ngerungskabel-Stromladekabel-Ersatzkabel/dp/B0D6362W88/ref=sr_1_6</t>
+  </si>
+  <si>
+    <t>Optional for THT parts, replaces C4, C5, C6, C7, C8
+https://www.reichelt.de/de/de/shop/produkt/keramik-kondensator_100_nf_-20_80_y5v_50_100_v_rm_5-9265</t>
+  </si>
+  <si>
+    <t>https://www.reichelt.de/de/de/shop/produkt/mosfet_n-ch_60v_48a_110w_0_023r_to220ab-257487</t>
+  </si>
+  <si>
+    <t>Jumper: https://www.reichelt.de/de/de/shop/produkt/kurzschlussbruecke_schw_m_grifflasche-9019</t>
+  </si>
+  <si>
+    <t>either wire bridge or:</t>
+  </si>
+  <si>
+    <t>Pin Header: https://www.reichelt.de/de/de/shop/produkt/stiftleiste_2x20-pol_vergoldet_2_54mm-235664</t>
   </si>
 </sst>
 </file>
@@ -392,7 +408,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -570,6 +586,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -734,9 +756,14 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="42" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1059,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1071,7 +1098,7 @@
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="65.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="64.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="61" customWidth="1"/>
+    <col min="6" max="6" width="97.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1091,7 +1118,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1162,15 +1189,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1178,8 +1205,8 @@
       <c r="E6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" t="s">
-        <v>75</v>
+      <c r="F6" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1200,23 +1227,23 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F8" t="s">
-        <v>69</v>
+      <c r="F8" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1235,107 +1262,102 @@
       <c r="E9" t="s">
         <v>59</v>
       </c>
+      <c r="F9" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="A10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="F10" s="2" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>70</v>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>61</v>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="3" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>70</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14">
+      <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="2">
         <v>1</v>
       </c>
-      <c r="E14" t="s">
-        <v>33</v>
+      <c r="E14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
         <v>32</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
         <v>33</v>
@@ -1343,93 +1365,137 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>68</v>
       </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F16" r:id="rId1"/>
-    <hyperlink ref="F17" r:id="rId2"/>
-    <hyperlink ref="F18" r:id="rId3"/>
-    <hyperlink ref="F19" r:id="rId4"/>
-    <hyperlink ref="F11" r:id="rId5"/>
+    <hyperlink ref="F18" r:id="rId1"/>
+    <hyperlink ref="F19" r:id="rId2"/>
+    <hyperlink ref="F20" r:id="rId3"/>
+    <hyperlink ref="F21" r:id="rId4"/>
+    <hyperlink ref="F13" r:id="rId5"/>
+    <hyperlink ref="F8" r:id="rId6"/>
+    <hyperlink ref="F14" r:id="rId7"/>
+    <hyperlink ref="F11" r:id="rId8"/>
+    <hyperlink ref="F12" r:id="rId9" display="https://www.reichelt.de/de/de/shop/produkt/stiftleiste_2x20-pol_vergoldet_2_54mm-235664"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>